--- a/data/oesm17nat/field_descriptions.xlsx
+++ b/data/oesm17nat/field_descriptions.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my_documents\download_file_maker\final_output_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shan/Downloads/Data Science/[H]hw4/p8105_Final_Project/data/oesm17nat/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E8915E-3596-6A46-9DE9-3B96FDC826F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8115"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26800" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Field_descriptions" sheetId="1" r:id="rId1"/>
@@ -255,7 +256,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -397,74 +398,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -484,7 +417,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFBF0"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -552,6 +485,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -587,6 +537,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -762,60 +729,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="200" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="88.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="88.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" s="14" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="13"/>
     </row>
-    <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" s="14" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="13"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="23" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="23"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
     </row>
-    <row r="10" spans="1:2" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>0</v>
       </c>
@@ -823,7 +792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" s="7" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>2</v>
       </c>
@@ -831,7 +800,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" s="7" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>3</v>
       </c>
@@ -839,7 +808,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" s="7" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
         <v>5</v>
       </c>
@@ -847,7 +816,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" s="7" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
         <v>6</v>
       </c>
@@ -855,7 +824,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" s="7" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
         <v>4</v>
       </c>
@@ -863,7 +832,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
         <v>29</v>
       </c>
@@ -871,7 +840,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
         <v>30</v>
       </c>
@@ -879,7 +848,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="7" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" s="7" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
         <v>36</v>
       </c>
@@ -887,7 +856,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" s="7" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
         <v>7</v>
       </c>
@@ -895,7 +864,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" s="7" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
         <v>8</v>
       </c>
@@ -903,7 +872,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="7" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" s="7" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
         <v>59</v>
       </c>
@@ -911,7 +880,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" s="7" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
         <v>9</v>
       </c>
@@ -919,7 +888,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
         <v>54</v>
       </c>
@@ -927,7 +896,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
         <v>55</v>
       </c>
@@ -935,7 +904,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
         <v>10</v>
       </c>
@@ -943,7 +912,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
         <v>35</v>
       </c>
@@ -951,7 +920,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" s="7" customFormat="1" ht="70" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
         <v>70</v>
       </c>
@@ -959,7 +928,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" s="7" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
         <v>11</v>
       </c>
@@ -967,7 +936,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" s="7" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
         <v>12</v>
       </c>
@@ -975,7 +944,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
         <v>56</v>
       </c>
@@ -983,7 +952,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" s="7" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
         <v>13</v>
       </c>
@@ -991,7 +960,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" s="7" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
         <v>14</v>
       </c>
@@ -999,7 +968,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" s="7" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
         <v>17</v>
       </c>
@@ -1007,7 +976,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" s="7" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
         <v>15</v>
       </c>
@@ -1015,7 +984,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" s="7" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
         <v>16</v>
       </c>
@@ -1023,7 +992,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" s="7" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
         <v>18</v>
       </c>
@@ -1031,7 +1000,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" s="7" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
         <v>19</v>
       </c>
@@ -1039,7 +1008,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" s="7" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
         <v>20</v>
       </c>
@@ -1047,7 +1016,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" s="7" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="8" t="s">
         <v>21</v>
       </c>
@@ -1055,7 +1024,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" s="7" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
         <v>22</v>
       </c>
@@ -1063,7 +1032,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:2" s="7" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" s="7" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
         <v>23</v>
       </c>
@@ -1071,7 +1040,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:2" s="7" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" s="7" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
         <v>31</v>
       </c>
@@ -1079,39 +1048,39 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="18"/>
       <c r="B43" s="19"/>
     </row>
-    <row r="44" spans="1:2" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" s="22" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B44" s="21"/>
     </row>
-    <row r="45" spans="1:2" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B45" s="17"/>
     </row>
-    <row r="46" spans="1:2" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A8:B8"/>
